--- a/src/test/resources/test_data/SRPTests/RackPricesTest.xlsx
+++ b/src/test/resources/test_data/SRPTests/RackPricesTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cityName</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>January</t>
+  </si>
+  <si>
+    <t>guestNum</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -371,20 +377,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,8 +402,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -404,6 +415,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
